--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value779.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value779.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.025272117115918</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>3.277915187444874</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>3.496650110921424</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.16530912362964</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.186876328848089</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
